--- a/Cronograma de Actividades.xlsx
+++ b/Cronograma de Actividades.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENA\Desktop\Python Carst\WorkSpaceCarlos\ProyectosCarst\Trading Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\2021-II\PROGRAMACION PARA ANALITICA DE DATOS\Competencias\Proyecto\ProyectosCarst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59906C43-3BE2-4FF5-BB59-BD2E40FA894E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABC6256-DADB-4283-95B2-304A298D3A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mi Cronograma" sheetId="1" r:id="rId1"/>
+    <sheet name="Ejemplo" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>Semana / Mes</t>
   </si>
@@ -58,12 +57,6 @@
   </si>
   <si>
     <t>Objetivos</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>PP</t>
   </si>
   <si>
     <t xml:space="preserve"> Metodología</t>
@@ -98,12 +91,18 @@
   <si>
     <t>Fase 5</t>
   </si>
+  <si>
+    <t>Tipo de Investigación</t>
+  </si>
+  <si>
+    <t>Pregunta Problema</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -127,6 +126,7 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -135,29 +135,17 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -167,12 +155,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -232,11 +244,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -244,42 +346,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -289,20 +368,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -525,34 +655,35 @@
   </sheetPr>
   <dimension ref="A1:AA1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1"/>
@@ -579,296 +710,283 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="16"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11">
-        <v>11.11</v>
-      </c>
-      <c r="D3" s="11">
-        <v>11.11</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="C3" s="27">
+        <v>12.5</v>
+      </c>
+      <c r="D3" s="27">
+        <f>C3</f>
+        <v>12.5</v>
+      </c>
+      <c r="E3" s="27">
         <f>C3-D3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
+      <c r="A4" s="26">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="11">
-        <f>5</f>
+      <c r="C4" s="27">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="D4" s="27">
+        <f t="shared" ref="D4:D6" si="0">C4</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="E4" s="27">
+        <f t="shared" ref="E4:E9" si="1">C4-D4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="26"/>
+      <c r="B5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="27">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="D5" s="27">
+        <f t="shared" si="0"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="E5" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="26"/>
+      <c r="B6" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="27">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="D6" s="27">
+        <f t="shared" si="0"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="E6" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="26"/>
+      <c r="B7" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="25">
+        <v>3</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="27">
+        <v>12.5</v>
+      </c>
+      <c r="D8" s="27">
+        <f>C8</f>
+        <v>12.5</v>
+      </c>
+      <c r="E8" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="25">
+        <v>4</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="27">
+        <v>12.5</v>
+      </c>
+      <c r="D9" s="27">
+        <f>C9</f>
+        <v>12.5</v>
+      </c>
+      <c r="E9" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11">
-        <f>C4</f>
-        <v>5</v>
-      </c>
-      <c r="E4" s="11">
-        <f t="shared" ref="E4:E9" si="0">C4-D4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="11">
-        <f>5</f>
-        <v>5</v>
-      </c>
-      <c r="D5" s="11">
-        <f>C5</f>
-        <v>5</v>
-      </c>
-      <c r="E5" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="13">
+        <v>12.5</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14">
+        <f>C11-D11</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>2</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6.25</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4">
+        <f>C12-D12</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6.25</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4">
+        <f t="shared" ref="E13:E17" si="2">C13-D13</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>3</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11">
-        <f>5</f>
-        <v>5</v>
-      </c>
-      <c r="D6" s="11">
-        <f>C6</f>
-        <v>5</v>
-      </c>
-      <c r="E6" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="10" t="s">
+      <c r="C14" s="4">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4">
+        <f t="shared" si="2"/>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11">
-        <f>5</f>
-        <v>5</v>
-      </c>
-      <c r="D7" s="11">
-        <f>C7</f>
-        <v>5</v>
-      </c>
-      <c r="E7" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
-        <v>3</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="11">
-        <v>11.11</v>
-      </c>
-      <c r="D8" s="11">
-        <f>C8</f>
-        <v>11.11</v>
-      </c>
-      <c r="E8" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="24">
+      <c r="C15" s="4">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4">
+        <f t="shared" si="2"/>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4">
+        <f t="shared" si="2"/>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="25">
-        <v>11.11</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25">
-        <f t="shared" si="0"/>
-        <v>11.11</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="5">
-        <v>11.11</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6">
-        <f>C11-D11</f>
-        <v>11.11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="17">
-        <v>2</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6">
-        <f>C12-D12</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="5">
-        <v>6</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6">
-        <f t="shared" ref="E13:E17" si="1">C13-D13</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
-        <v>3</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="6">
-        <f>4.3333</f>
-        <v>4.3333000000000004</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6">
-        <f t="shared" si="1"/>
-        <v>4.3333000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="6">
-        <f>4.333</f>
-        <v>4.3330000000000002</v>
-      </c>
-      <c r="D15" s="6">
-        <v>2</v>
-      </c>
-      <c r="E15" s="6">
-        <f t="shared" si="1"/>
-        <v>2.3330000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="6">
-        <f>4.333</f>
-        <v>4.3330000000000002</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6">
-        <f t="shared" si="1"/>
-        <v>4.3330000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>4</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="6">
-        <v>11.11</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6">
-        <f t="shared" si="1"/>
-        <v>11.11</v>
+      <c r="C17" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
+      <c r="A18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="23">
+        <f>SUM(C3:C6)+SUM(C11:C17)+SUM(C8:C9)</f>
+        <v>100</v>
+      </c>
+      <c r="D18" s="19">
+        <f>SUM(D3:D9,D11:D17)</f>
+        <v>50</v>
+      </c>
+      <c r="E18" s="21">
+        <f>SUM(E11:E17)+SUM(E3:E6)+SUM(E8:E9)</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="6">
-        <f>SUM(C3:C9) + SUM(C11:C17)</f>
-        <v>100.54929999999999</v>
-      </c>
-      <c r="D19" s="6">
-        <f>SUM(D3:D9,D11:D17)</f>
-        <v>44.22</v>
-      </c>
-      <c r="E19" s="6">
-        <f>SUM(E11:E18)+ SUM(E3:E9)</f>
-        <v>56.329299999999996</v>
-      </c>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="21"/>
-      <c r="D21" s="21"/>
+      <c r="B21" s="7"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
@@ -3826,15 +3944,317 @@
       <c r="A1006" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
+  <mergeCells count="10">
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A12:A13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DBBCEF-1056-40A9-8950-35508A6C65BC}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="25">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="27">
+        <v>12.5</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27">
+        <f>C3-D3</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="26">
+        <v>2</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="27">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27">
+        <f t="shared" ref="E4:E9" si="0">C4-D4</f>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="26"/>
+      <c r="B5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="27">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27">
+        <f t="shared" si="0"/>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="26"/>
+      <c r="B6" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="27">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27">
+        <f t="shared" si="0"/>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="26"/>
+      <c r="B7" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="25">
+        <v>3</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="27">
+        <v>12.5</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="25">
+        <v>4</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="27">
+        <v>12.5</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="13">
+        <v>12.5</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14">
+        <f>C11-D11</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>2</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6.25</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4">
+        <f>C12-D12</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6.25</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4">
+        <f t="shared" ref="E13:E17" si="1">C13-D13</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>3</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4">
+        <f t="shared" si="1"/>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4">
+        <f t="shared" si="1"/>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4">
+        <f t="shared" si="1"/>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="23">
+        <f>SUM(C3:C6)+SUM(C11:C17)+SUM(C8:C9)</f>
+        <v>100</v>
+      </c>
+      <c r="D18" s="19">
+        <f>SUM(D3:D9,D11:D17)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="21">
+        <f>SUM(E11:E17)+SUM(E3:E6)+SUM(E8:E9)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cronograma de Actividades.xlsx
+++ b/Cronograma de Actividades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\2021-II\PROGRAMACION PARA ANALITICA DE DATOS\Competencias\Proyecto\ProyectosCarst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABC6256-DADB-4283-95B2-304A298D3A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CD5CF0-4910-49D2-B51F-54BEAEAC58AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mi Cronograma" sheetId="1" r:id="rId1"/>
@@ -113,11 +113,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -338,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -359,23 +361,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -390,6 +401,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -402,30 +419,6 @@
     <xf numFmtId="4" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -434,6 +427,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,8 +672,8 @@
   </sheetPr>
   <dimension ref="A1:AA1006"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -710,129 +727,129 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="11">
         <v>12.5</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="11">
         <f>C3</f>
         <v>12.5</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="11">
         <f>C3-D3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="26">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="11">
         <v>4.166666666666667</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="11">
         <f t="shared" ref="D4:D6" si="0">C4</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="11">
         <f t="shared" ref="E4:E9" si="1">C4-D4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="11">
         <v>4.166666666666667</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="11">
         <f t="shared" si="0"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="11">
         <v>4.166666666666667</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="11">
         <f t="shared" si="0"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="28" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="25">
+      <c r="A8" s="10">
         <v>3</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="11">
         <v>12.5</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="11">
         <f>C8</f>
         <v>12.5</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="25">
+      <c r="A9" s="10">
         <v>4</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="11">
         <v>12.5</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="11">
         <f>C9</f>
         <v>12.5</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -841,62 +858,66 @@
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+      <c r="A11" s="34">
         <v>1</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="34">
         <v>12.5</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14">
+      <c r="D11" s="34">
+        <v>12.5</v>
+      </c>
+      <c r="E11" s="35">
         <f>C11-D11</f>
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+      <c r="A12" s="36">
         <v>2</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="8">
         <v>6.25</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4">
+      <c r="D12" s="8">
+        <v>3.25</v>
+      </c>
+      <c r="E12" s="9">
         <f>C12-D12</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="38"/>
+      <c r="B13" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="8">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4">
+      <c r="D13" s="8"/>
+      <c r="E13" s="9">
         <f t="shared" ref="E13:E17" si="2">C13-D13</f>
         <v>6.25</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+      <c r="A14" s="31">
         <v>3</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -912,7 +933,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
@@ -926,7 +947,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="6" t="s">
         <v>12</v>
       </c>
@@ -956,29 +977,29 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="23">
+      <c r="B18" s="19"/>
+      <c r="C18" s="22">
         <f>SUM(C3:C6)+SUM(C11:C17)+SUM(C8:C9)</f>
         <v>100</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="24">
         <f>SUM(D3:D9,D11:D17)</f>
-        <v>50</v>
-      </c>
-      <c r="E18" s="21">
+        <v>65.75</v>
+      </c>
+      <c r="E18" s="26">
         <f>SUM(E11:E17)+SUM(E3:E6)+SUM(E8:E9)</f>
-        <v>50</v>
+        <v>34.25</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="22"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="27"/>
     </row>
     <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -3945,6 +3966,9 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B7:E7"/>
@@ -3952,9 +3976,6 @@
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3964,8 +3985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DBBCEF-1056-40A9-8950-35508A6C65BC}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3994,172 +4015,172 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="25">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="11">
         <v>12.5</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11">
         <f>C3-D3</f>
         <v>12.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="26">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="11">
         <v>4.166666666666667</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11">
         <f t="shared" ref="E4:E9" si="0">C4-D4</f>
         <v>4.166666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="11">
         <v>4.166666666666667</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11">
         <f t="shared" si="0"/>
         <v>4.166666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="11">
         <v>4.166666666666667</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11">
         <f t="shared" si="0"/>
         <v>4.166666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="28" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="25">
+      <c r="A8" s="10">
         <v>3</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="11">
         <v>12.5</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="25">
+      <c r="A9" s="10">
         <v>4</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="11">
         <v>12.5</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+      <c r="A11" s="34">
         <v>1</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="34">
         <v>12.5</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14">
+      <c r="D11" s="34"/>
+      <c r="E11" s="35">
         <f>C11-D11</f>
         <v>12.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+      <c r="A12" s="36">
         <v>2</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="8">
         <v>6.25</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4">
+      <c r="D12" s="8"/>
+      <c r="E12" s="9">
         <f>C12-D12</f>
         <v>6.25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="8">
         <v>6.25</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4">
+      <c r="D13" s="8"/>
+      <c r="E13" s="9">
         <f t="shared" ref="E13:E17" si="1">C13-D13</f>
         <v>6.25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+      <c r="A14" s="31">
         <v>3</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -4175,7 +4196,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
@@ -4189,7 +4210,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="6" t="s">
         <v>12</v>
       </c>
@@ -4219,32 +4240,33 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="23">
+      <c r="B18" s="19"/>
+      <c r="C18" s="22">
         <f>SUM(C3:C6)+SUM(C11:C17)+SUM(C8:C9)</f>
         <v>100</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="24">
         <f>SUM(D3:D9,D11:D17)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="26">
         <f>SUM(E11:E17)+SUM(E3:E6)+SUM(E8:E9)</f>
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="22"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B7:E7"/>
@@ -4254,7 +4276,6 @@
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cronograma de Actividades.xlsx
+++ b/Cronograma de Actividades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\2021-II\PROGRAMACION PARA ANALITICA DE DATOS\Competencias\Proyecto\ProyectosCarst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CD5CF0-4910-49D2-B51F-54BEAEAC58AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C423A6EE-D2A7-4EB3-B749-E705B1AD05D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -372,6 +372,39 @@
     </xf>
     <xf numFmtId="4" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -419,38 +452,14 @@
     <xf numFmtId="4" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,7 +682,7 @@
   <dimension ref="A1:AA1006"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -727,13 +736,13 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
@@ -755,7 +764,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
+      <c r="A4" s="25">
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -774,7 +783,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="10" t="s">
         <v>20</v>
       </c>
@@ -791,7 +800,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="10" t="s">
         <v>21</v>
       </c>
@@ -808,13 +817,13 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
@@ -858,106 +867,112 @@
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="34">
+      <c r="A11" s="12">
         <v>1</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="12">
         <v>12.5</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="12">
         <v>12.5</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="13">
         <f>C11-D11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="36">
+      <c r="A12" s="21">
         <v>2</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="8">
         <v>6.25</v>
       </c>
       <c r="D12" s="8">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="E12" s="9">
         <f>C12-D12</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="22"/>
+      <c r="B13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="12">
+        <v>6.25</v>
+      </c>
+      <c r="D13" s="12">
+        <v>6.25</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" ref="E13:E17" si="2">C13-D13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="21">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="8">
-        <v>6.25</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9">
-        <f t="shared" ref="E13:E17" si="2">C13-D13</f>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="31">
-        <v>3</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="41">
         <v>4.166666666666667</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4">
+      <c r="D14" s="41"/>
+      <c r="E14" s="41">
         <f t="shared" si="2"/>
         <v>4.166666666666667</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="13">
         <v>4.166666666666667</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4">
+      <c r="D15" s="13">
+        <v>4.17</v>
+      </c>
+      <c r="E15" s="13">
         <f t="shared" si="2"/>
+        <v>-3.3333333333329662E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="22"/>
+      <c r="B16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="13">
         <v>4.166666666666667</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
-      <c r="B16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="4">
-        <v>4.166666666666667</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4">
+      <c r="D16" s="13">
+        <v>4.17</v>
+      </c>
+      <c r="E16" s="13">
         <f t="shared" si="2"/>
-        <v>4.166666666666667</v>
+        <v>-3.3333333333329662E-3</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -977,29 +992,29 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="22">
+      <c r="B18" s="30"/>
+      <c r="C18" s="33">
         <f>SUM(C3:C6)+SUM(C11:C17)+SUM(C8:C9)</f>
         <v>100</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="35">
         <f>SUM(D3:D9,D11:D17)</f>
-        <v>65.75</v>
-      </c>
-      <c r="E18" s="26">
+        <v>82.09</v>
+      </c>
+      <c r="E18" s="37">
         <f>SUM(E11:E17)+SUM(E3:E6)+SUM(E8:E9)</f>
-        <v>34.25</v>
+        <v>17.91</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="27"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="38"/>
     </row>
     <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -3966,16 +3981,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4015,13 +4030,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
@@ -4040,7 +4055,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
+      <c r="A4" s="25">
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -4056,7 +4071,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="10" t="s">
         <v>20</v>
       </c>
@@ -4070,7 +4085,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="10" t="s">
         <v>21</v>
       </c>
@@ -4084,13 +4099,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
@@ -4125,35 +4140,35 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="34">
+      <c r="A11" s="12">
         <v>1</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="12">
         <v>12.5</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35">
+      <c r="D11" s="12"/>
+      <c r="E11" s="13">
         <f>C11-D11</f>
         <v>12.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="36">
+      <c r="A12" s="21">
         <v>2</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="8">
@@ -4166,8 +4181,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="37" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="8">
@@ -4180,7 +4195,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="31">
+      <c r="A14" s="18">
         <v>3</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -4196,7 +4211,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
@@ -4210,7 +4225,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="6" t="s">
         <v>12</v>
       </c>
@@ -4240,29 +4255,29 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="22">
+      <c r="B18" s="30"/>
+      <c r="C18" s="33">
         <f>SUM(C3:C6)+SUM(C11:C17)+SUM(C8:C9)</f>
         <v>100</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="35">
         <f>SUM(D3:D9,D11:D17)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="37">
         <f>SUM(E11:E17)+SUM(E3:E6)+SUM(E8:E9)</f>
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="27"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="10">
